--- a/AA - Calendario de Turnos(version Vacaciones2024).xlsx
+++ b/AA - Calendario de Turnos(version Vacaciones2024).xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -702,17 +702,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -989,17 +989,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Iñiguez - Carrasco - Ramos - Loch</t>
+          <t xml:space="preserve">  - Iñiguez - Carrasco - Loch</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Iñiguez - Carrasco - Cisternas - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1317,19 +1317,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Boettiger</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Boettiger</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Boettiger</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1527,12 +1527,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Boettiger - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Boettiger - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Ramos - Boettiger - Loch - Rubio</t>
+          <t xml:space="preserve">  - Gomez - Iñiguez - Carrasco - Cisternas - Pio - Boettiger - Loch - Rubio</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Culaciati - Pio - Ramos - Boettiger - Loch</t>
+          <t xml:space="preserve">  - Gomez - Culaciati - Pio - Boettiger - Loch</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Culaciati - Pio - Ramos - Boettiger - Loch</t>
+          <t xml:space="preserve">  - Gomez - Culaciati - Pio - Boettiger - Loch</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Culaciati - Pio - Ramos - Boettiger - Loch</t>
+          <t xml:space="preserve">  - Gomez - Culaciati - Pio - Boettiger - Loch</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger - Loch</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Arredondo - Culaciati - Contreras - Pio - Boettiger - Loch</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger - Loch</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Arredondo - Culaciati - Contreras - Pio - Boettiger - Loch</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger - Loch</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Arredondo - Culaciati - Contreras - Pio - Boettiger - Loch</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger - Loch</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Arredondo - Culaciati - Contreras - Pio - Boettiger - Loch</t>
         </is>
       </c>
     </row>
@@ -1932,19 +1932,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Cisternas</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Loch</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2014,17 +2014,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>Alvo</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Cisternas</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2178,17 +2178,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Loch</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2347,14 +2347,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Rubio</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Cisternas</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2388,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2506,19 +2506,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Cisternas</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Loch</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Alvo - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Pio - Alvo - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2552,12 +2552,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Gomez - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2588,19 +2588,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Loch</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2634,22 +2634,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t xml:space="preserve"> - Boettiger con conflicto vacaciones </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Ramos - Boettiger</t>
+          <t xml:space="preserve">  - Fernandez - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Boettiger</t>
         </is>
       </c>
     </row>
@@ -2752,17 +2752,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Breinbauer - Arredondo - Culaciati - Contreras - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Breinbauer - Arredondo - Culaciati - Contreras - Alvo</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Arredondo - Culaciati - Contreras - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Arredondo - Culaciati - Contreras - Alvo</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Arredondo - Contreras - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Arredondo - Contreras - Alvo</t>
         </is>
       </c>
     </row>
@@ -2875,17 +2875,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Arredondo - Contreras - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Arredondo - Contreras - Alvo</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Arredondo - Contreras - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Arredondo - Contreras - Alvo</t>
         </is>
       </c>
     </row>
@@ -2962,14 +2962,14 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Rubio</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -2998,17 +2998,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3039,17 +3039,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3085,12 +3085,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3162,17 +3162,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3203,19 +3203,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>Pio</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Boettiger</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Culaciati</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Loch</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3285,17 +3285,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3326,17 +3326,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3372,12 +3372,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3449,17 +3449,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3572,17 +3572,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3613,17 +3613,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Alvo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo - Alvo</t>
         </is>
       </c>
     </row>
@@ -3659,12 +3659,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3859,17 +3859,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3900,27 +3900,27 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Fernandez</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t xml:space="preserve"> - Fernandez con conflicto vacaciones </t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -4023,17 +4023,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -4074,17 +4074,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Ramos con conflicto vacaciones </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -4141,22 +4141,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -4182,22 +4182,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bravo - Ramos</t>
+          <t xml:space="preserve">  - Fernandez - Bravo</t>
         </is>
       </c>
     </row>
@@ -4233,22 +4233,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Ramos con conflicto vacaciones </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Ramos</t>
+          <t xml:space="preserve">  - Fernandez</t>
         </is>
       </c>
     </row>

--- a/AA - Calendario de Turnos(version Vacaciones2024).xlsx
+++ b/AA - Calendario de Turnos(version Vacaciones2024).xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -702,17 +702,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -743,17 +743,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -953,14 +953,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Pio</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -968,7 +968,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -989,17 +989,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -1030,17 +1030,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez - Recluta1</t>
+          <t xml:space="preserve">  - Recluta1</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1317,19 +1317,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Recluta1</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Recluta1</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Recluta1</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1527,12 +1527,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1604,17 +1604,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1850,17 +1850,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1891,17 +1891,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2178,17 +2178,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2424,17 +2424,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2711,17 +2711,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2752,17 +2752,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2962,12 +2962,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2998,17 +2998,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3039,17 +3039,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3285,17 +3285,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3326,17 +3326,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3613,17 +3613,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3859,17 +3859,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3900,17 +3900,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4146,17 +4146,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4187,17 +4187,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4397,14 +4397,14 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>Pio</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Rubio</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4433,17 +4433,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4474,17 +4474,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4684,12 +4684,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4720,17 +4720,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4761,17 +4761,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4971,12 +4971,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5007,17 +5007,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5048,17 +5048,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5258,12 +5258,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5294,17 +5294,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5335,17 +5335,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5581,17 +5581,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5868,17 +5868,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5909,17 +5909,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6155,17 +6155,17 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6196,17 +6196,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6442,17 +6442,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6483,17 +6483,17 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6729,17 +6729,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6770,17 +6770,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7016,17 +7016,17 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7057,17 +7057,17 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7303,17 +7303,17 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7590,17 +7590,17 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7631,17 +7631,17 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7682,7 +7682,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7877,17 +7877,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7918,17 +7918,17 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8164,17 +8164,17 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8205,17 +8205,17 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8451,17 +8451,17 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8492,17 +8492,17 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8738,17 +8738,17 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8779,17 +8779,17 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9025,17 +9025,17 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9066,17 +9066,17 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9599,17 +9599,17 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9640,17 +9640,17 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9660,7 +9660,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9732,7 +9732,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9886,17 +9886,17 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9927,17 +9927,17 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10173,17 +10173,17 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10214,17 +10214,17 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10460,17 +10460,17 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10501,17 +10501,17 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10634,7 +10634,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10747,17 +10747,17 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10788,17 +10788,17 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11034,17 +11034,17 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11075,27 +11075,27 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Fernandez con conflicto vacaciones </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11167,7 +11167,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11321,27 +11321,27 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Fernandez con conflicto vacaciones </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11362,27 +11362,27 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Fernandez con conflicto vacaciones </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11608,27 +11608,27 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Fernandez con conflicto vacaciones </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11649,27 +11649,27 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Fernandez con conflicto vacaciones </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Fernandez</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
